--- a/CIS List.xlsx
+++ b/CIS List.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyDocuments\Dev Docu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D891FF3C-4EC3-4D53-AC69-6627A4D3F400}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B54EAB-9453-412E-BD6A-72B438709DF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23592" yWindow="384" windowWidth="21600" windowHeight="11388" xr2:uid="{7D49CC21-B670-428B-84D7-CDE8591BE7AA}"/>
+    <workbookView xWindow="30285" yWindow="2310" windowWidth="18525" windowHeight="10905" xr2:uid="{7D49CC21-B670-428B-84D7-CDE8591BE7AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>PN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +142,34 @@
   </si>
   <si>
     <t>10 x 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">IMX392LLR/LQR	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3 M	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1936 x 1216	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">IMX290LLR	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1 M	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1945 x 1097	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9	</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4123261B-4D6E-4CFA-A42B-4796A436187D}">
-  <dimension ref="B2:I7"/>
+  <dimension ref="B2:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -636,9 +665,57 @@
         <v>20</v>
       </c>
     </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8">
+        <v>201</v>
+      </c>
+      <c r="I8">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <v>120</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C383F60-E69E-4702-A01C-8E87614D3E7F}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>